--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1273593.818698133</v>
+        <v>1337509.553670777</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16659530.99074006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2113478.654365224</v>
+        <v>606553.2040797153</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6269329.882508215</v>
+        <v>6764510.066866145</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -668,16 +670,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>235.8799504161199</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>201.0547071365028</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>190.9208213480136</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -902,7 +904,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>124.7668265422409</v>
+        <v>100.6039668047034</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1114,13 +1116,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>125.171654445485</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494614</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>170.4850594777228</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1196,7 +1198,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>68.06211081279088</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>101.7706336613763</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>360.6246392337476</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225787</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>175.0349193669826</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>201.3151614101883</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1859,10 +1861,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>61.06386613909972</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.9353622244306</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2494,7 +2496,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>122.9742767430576</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>131.9969996527475</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2779,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>191.9089456912534</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2964,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3193,7 +3195,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>24.40875262509159</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>85.55329631630762</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>260.4356504767625</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3518,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>271.7368624962581</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>110.675146499381</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3910,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>52.51170991984778</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3980,22 +3982,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>220.9154882489132</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>403.8720952516329</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>3.139541480022616</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1384.172938476169</v>
+        <v>1195.450391149961</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.070869699997</v>
+        <v>1161.348322373788</v>
       </c>
       <c r="D2" t="n">
-        <v>914.1610848744411</v>
+        <v>725.4385375482323</v>
       </c>
       <c r="E2" t="n">
-        <v>480.3863400327363</v>
+        <v>291.6637927065274</v>
       </c>
       <c r="F2" t="n">
-        <v>456.5593144823481</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>666.6506660403358</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2653.582812821435</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2433.515585694473</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="U2" t="n">
-        <v>2433.515585694473</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="V2" t="n">
-        <v>2433.515585694473</v>
+        <v>2449.993599304467</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.660131105507</v>
+        <v>2449.178548755904</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.517667684817</v>
+        <v>2030.036085335215</v>
       </c>
       <c r="Y2" t="n">
-        <v>1406.432104920673</v>
+        <v>1621.749961634868</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1580.166670150082</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1473.710208986724</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.619920133277</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1284.499505460231</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1201.115667076393</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1115.730577342577</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1073.994925158789</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1100.058598319247</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1424.616923285459</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2079.322969911183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2079.322969911183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2079.322969911183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2079.322969911183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2079.322969911183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2079.322969911183</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2620.061908543259</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2737.234686637598</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2673.779249085981</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2543.600605416583</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2367.264058416551</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2168.14654047855</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1982.823786211744</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1827.956350450624</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1701.470571229845</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.3631500293809</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>795.3631500293809</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>414.7393562644544</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324156</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1214.60143943426</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>987.1817687483681</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.651074442687</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C5" t="n">
-        <v>640.5086016261107</v>
+        <v>614.7581953941717</v>
       </c>
       <c r="D5" t="n">
-        <v>204.5988168005552</v>
+        <v>178.8484105686162</v>
       </c>
       <c r="E5" t="n">
-        <v>78.57171928314017</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>489.9993811856698</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>489.9993811856698</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>666.6506660403358</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2737.234686637598</v>
+        <v>2307.443876365255</v>
       </c>
       <c r="W5" t="n">
-        <v>2332.379232048631</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>1913.236768627942</v>
+        <v>1483.445958355599</v>
       </c>
       <c r="Y5" t="n">
-        <v>1504.950644927595</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>80.80836689320955</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>405.3666918594219</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="L6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="M6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="N6" t="n">
-        <v>1060.072738485145</v>
+        <v>397.8892067392438</v>
       </c>
       <c r="O6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.072738485145</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1600.811677117221</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1133.802854344633</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>961.2411428278582</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>795.3631500293809</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>625.6051462801182</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>448.8980922418745</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>283.3068172677021</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>143.4046429580766</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2490.74511363892</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2244.865667217376</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1966.432666470481</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1679.477158340911</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1553.041143749512</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1553.041143749512</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="Y7" t="n">
-        <v>1325.62147306362</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1386.815511139837</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>948.6730383232605</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>512.763253497705</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>78.98850865600016</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H8" t="n">
-        <v>55.16148310561195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="L8" t="n">
-        <v>1344.116250983141</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="M8" t="n">
-        <v>1344.116250983141</v>
+        <v>801.8819313892767</v>
       </c>
       <c r="N8" t="n">
-        <v>1344.116250983141</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>2123.562040472834</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2653.582812821435</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2653.582812821435</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U8" t="n">
-        <v>2653.582812821435</v>
+        <v>2194.134594702725</v>
       </c>
       <c r="V8" t="n">
-        <v>2290.965862755261</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W8" t="n">
-        <v>1886.110408166295</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X8" t="n">
-        <v>1817.360801284688</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y8" t="n">
-        <v>1409.074677584341</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I9" t="n">
-        <v>58.04882857612763</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>382.60715354234</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1605.602207829153</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1045.142905119309</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>872.5811936025335</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>706.7032008040562</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>536.9451970547935</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>360.2381430165498</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>194.6468680423774</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2649.986482340924</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2649.986482340924</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2547.187862480948</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2268.754861734053</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1981.799353604483</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1709.772949190775</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1464.381194524188</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1236.961523838296</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>778.0663825041006</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>778.0663825041006</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>778.0663825041006</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>344.2916376623957</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>344.2916376623957</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>344.2916376623957</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1167.464966128475</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1344.116250983141</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="M11" t="n">
-        <v>1344.116250983141</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="N11" t="n">
-        <v>1344.116250983141</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2374.617736571424</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>1969.762281982458</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>1550.619818561768</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1142.333694861421</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>80.80836689320955</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>405.3666918594219</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1082.832276802227</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1082.832276802227</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1082.832276802227</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1600.811677117221</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4798998523679</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C13" t="n">
-        <v>750.9181883355928</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D13" t="n">
-        <v>585.0401955371156</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E13" t="n">
-        <v>415.2821917878528</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F13" t="n">
-        <v>238.575137749609</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G13" t="n">
-        <v>72.98386277543668</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.404303635552</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.524857214007</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.091856467112</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.136348337543</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.109943923834</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X13" t="n">
-        <v>1342.718189257247</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y13" t="n">
-        <v>1115.298518571355</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1325.827054776748</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C14" t="n">
-        <v>1325.827054776748</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D14" t="n">
-        <v>889.9172699511929</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E14" t="n">
-        <v>456.1425251094881</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F14" t="n">
-        <v>456.1425251094881</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>489.9993811856698</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>489.9993811856698</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>489.9993811856698</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="N14" t="n">
-        <v>666.6506660403358</v>
+        <v>3128.911340966338</v>
       </c>
       <c r="O14" t="n">
-        <v>1344.116250983141</v>
+        <v>4109.091007536645</v>
       </c>
       <c r="P14" t="n">
-        <v>2021.581835925947</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>2737.234686637598</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>2374.617736571424</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>2171.269088682345</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>1752.126625261656</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>1752.126625261656</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="17">
@@ -5507,34 +5509,34 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>414.500552094942</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>414.500552094942</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>414.500552094942</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423627</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3205.876241053795</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3033.31452953702</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>2971.633856669243</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2801.87585291998</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4953.800644836978</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4707.921198415434</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>4429.488197668539</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>4142.53268953897</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>3870.506285125261</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3625.114530458674</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3397.694859772782</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>3575.440564248063</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>3402.878852731288</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>3237.000859932811</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>3067.242856183548</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T25" t="n">
-        <v>2594.704009018975</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="U25" t="n">
-        <v>2316.271008272081</v>
+        <v>4799.052520862807</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>4512.097012733238</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>4240.070608319529</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>3994.678853652942</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>3767.25918296705</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3409.849289273891</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>3237.287577757116</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>3071.409584958638</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>2901.651581209376</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>2724.944527171132</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J28" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K28" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N28" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O28" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P28" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>3409.849289273891</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,16 +6466,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6545,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1272.606004876648</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3430.337866180711</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C34" t="n">
-        <v>3257.776154663936</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D34" t="n">
-        <v>3091.898161865459</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E34" t="n">
-        <v>3067.242856183548</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F34" t="n">
-        <v>2890.535802145304</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G34" t="n">
-        <v>2724.944527171132</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H34" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I34" t="n">
         <v>2496.382403636182</v>
@@ -6880,28 +6882,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T34" t="n">
-        <v>4932.38282354235</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U34" t="n">
-        <v>4653.949822795455</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V34" t="n">
-        <v>4366.994314665886</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W34" t="n">
-        <v>4094.967910252178</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X34" t="n">
-        <v>3849.57615558559</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y34" t="n">
-        <v>3622.156484899699</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="35">
@@ -6935,37 +6937,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
         <v>4550.100609912873</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U37" t="n">
-        <v>2292.381813755403</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>525.9458847132731</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>1601.005850966132</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176683</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T39" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V39" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W39" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1790.855915180241</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.713442363665</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D41" t="n">
-        <v>916.8036575381091</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E41" t="n">
-        <v>483.0289126964042</v>
+        <v>796.5359975716556</v>
       </c>
       <c r="F41" t="n">
-        <v>55.16148310561195</v>
+        <v>368.6685679808633</v>
       </c>
       <c r="G41" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H41" t="n">
-        <v>55.16148310561195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>489.9993811856698</v>
+        <v>254.9523156162931</v>
       </c>
       <c r="K41" t="n">
-        <v>1167.464966128475</v>
+        <v>1089.302607574471</v>
       </c>
       <c r="L41" t="n">
-        <v>1844.930551071281</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M41" t="n">
-        <v>1890.615036941736</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N41" t="n">
-        <v>1890.615036941736</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>2568.080621884541</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2568.080621884541</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>2737.234686637598</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>2625.441609365496</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>2625.441609365496</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2217.155485665149</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>3531.436949455168</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>3424.98048829181</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>3329.890199438363</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>3235.769784765317</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>3152.385946381479</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>3067.000856647663</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>3025.265204463875</v>
       </c>
       <c r="I42" t="n">
-        <v>54.74469373275195</v>
+        <v>3051.328877624333</v>
       </c>
       <c r="J42" t="n">
-        <v>54.74469373275195</v>
+        <v>3375.887202590545</v>
       </c>
       <c r="K42" t="n">
-        <v>54.74469373275195</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="L42" t="n">
-        <v>363.05328532595</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="M42" t="n">
-        <v>1040.518870268755</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="N42" t="n">
-        <v>1717.984455211561</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="O42" t="n">
-        <v>1717.984455211561</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="P42" t="n">
-        <v>1717.984455211561</v>
+        <v>4030.593249216269</v>
       </c>
       <c r="Q42" t="n">
-        <v>1717.984455211561</v>
+        <v>4571.332187848344</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>4625.049528391067</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>4494.870884721669</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>4318.534337721637</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>4119.416819783636</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>3934.09406551683</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>3779.22662975571</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>3652.740850534931</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.084093604677</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>914.522382087902</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>748.6443892894247</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>578.8863855401619</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>402.1793315019181</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>349.1372002697486</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>209.2350259601232</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2715.81686534297</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2556.575496640966</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2310.696050219422</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2310.696050219422</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2023.740542089852</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.714137676144</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1506.322383009556</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1278.902712323664</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>716.0341243765137</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C44" t="n">
-        <v>277.891651559937</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D44" t="n">
-        <v>277.891651559937</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>277.891651559937</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>54.74469373275195</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>54.74469373275195</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>54.74469373275195</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>54.74469373275195</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>54.74469373275195</v>
+        <v>350.4865144725204</v>
       </c>
       <c r="L44" t="n">
-        <v>732.2102786755574</v>
+        <v>1425.54648072538</v>
       </c>
       <c r="M44" t="n">
-        <v>1409.675863618363</v>
+        <v>2582.59431593593</v>
       </c>
       <c r="N44" t="n">
-        <v>2087.141448561168</v>
+        <v>3708.325299372378</v>
       </c>
       <c r="O44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="P44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="Q44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2374.617736571424</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>1969.762281982458</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="X44" t="n">
-        <v>1550.619818561768</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y44" t="n">
-        <v>1142.333694861421</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1580.166670150082</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1473.710208986724</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1378.619920133277</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1284.499505460231</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1201.115667076393</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1115.730577342577</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1073.994925158789</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1100.058598319247</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1424.616923285459</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2079.322969911183</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2620.061908543259</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2737.234686637598</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2673.779249085981</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2543.600605416583</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2367.264058416551</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2168.14654047855</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1982.823786211744</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1827.956350450624</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1701.470571229845</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.6510928577823</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>636.0893813410072</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>470.2113885425299</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>300.4533847932672</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>123.7463307550234</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2556.575496640966</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2310.696050219422</v>
+        <v>2674.873217292374</v>
       </c>
       <c r="U46" t="n">
-        <v>2032.263049472527</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.307541342957</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.281136929249</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X46" t="n">
-        <v>1227.889382262661</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000.469711576769</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8292,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33750994280372</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174595</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4356412673392</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>178.4356412673393</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>585.266624652565</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10124,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>427.9646913560541</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10832,16 +10834,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10896,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593994</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>46.1459453236921</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11133,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>259.309510256229</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.41193554631104</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142713</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>111.2039336442333</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,19 +23551,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>199.4917386328887</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>103.1553467313928</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>120.4463752142717</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.6516710866782</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>33.23652828777944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6516710866785</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>139.5921776627252</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>23.6503025715113</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>290.131753543696</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>111.4236523045828</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25868,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>202.6732670459712</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>11.07894353484949</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>598520.8246057018</v>
+        <v>598388.498886334</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>598520.8246057018</v>
+        <v>598388.498886334</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>598520.8246057018</v>
+        <v>598388.498886334</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>386475.5912822507</v>
+        <v>556081.1961658797</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>386475.5912822507</v>
+        <v>556081.1961658797</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592982.2157307974</v>
+        <v>592982.2157307975</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592982.2157307976</v>
+        <v>592982.2157307975</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592982.2157307974</v>
+        <v>592982.2157307975</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>386475.5912822506</v>
+        <v>556081.1961658797</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>386475.5912822507</v>
+        <v>556081.1961658797</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>348495.7579287654</v>
+        <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
         <v>348495.7579287655</v>
       </c>
       <c r="D2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="F2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
         <v>342457.4296892791</v>
@@ -26332,7 +26334,7 @@
         <v>342457.429689279</v>
       </c>
       <c r="I2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892789</v>
       </c>
       <c r="J2" t="n">
         <v>342457.429689279</v>
@@ -26344,16 +26346,16 @@
         <v>342457.429689279</v>
       </c>
       <c r="M2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.429689279</v>
+        <v>342457.4296892791</v>
       </c>
       <c r="O2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
       <c r="P2" t="n">
-        <v>223196.301873999</v>
+        <v>321146.4561425571</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>119310.1515554629</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>9284.299089827529</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="F4" t="n">
-        <v>9284.299089827529</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26454,10 +26456,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>9284.299089827527</v>
+        <v>13358.73276318392</v>
       </c>
       <c r="P4" t="n">
-        <v>9284.299089827527</v>
+        <v>13358.73276318392</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75375.53583610189</v>
+        <v>-71547.31844217231</v>
       </c>
       <c r="C6" t="n">
-        <v>153952.0391364111</v>
+        <v>152152.3801418726</v>
       </c>
       <c r="D6" t="n">
-        <v>153952.0391364112</v>
+        <v>152152.3801418724</v>
       </c>
       <c r="E6" t="n">
-        <v>172306.03554728</v>
+        <v>85856.6943252965</v>
       </c>
       <c r="F6" t="n">
-        <v>172306.03554728</v>
+        <v>236522.4478970444</v>
       </c>
       <c r="G6" t="n">
-        <v>87700.69771455246</v>
+        <v>221404.1763403861</v>
       </c>
       <c r="H6" t="n">
         <v>250493.9855129938</v>
@@ -26543,7 +26545,7 @@
         <v>250493.9855129938</v>
       </c>
       <c r="J6" t="n">
-        <v>71448.72742534193</v>
+        <v>75842.63679528769</v>
       </c>
       <c r="K6" t="n">
         <v>250493.9855129938</v>
@@ -26552,16 +26554,16 @@
         <v>250493.9855129938</v>
       </c>
       <c r="M6" t="n">
-        <v>250493.9855129938</v>
+        <v>124742.8971773031</v>
       </c>
       <c r="N6" t="n">
-        <v>250493.9855129938</v>
+        <v>250493.9855129939</v>
       </c>
       <c r="O6" t="n">
-        <v>172306.03554728</v>
+        <v>236522.4478970444</v>
       </c>
       <c r="P6" t="n">
-        <v>172306.03554728</v>
+        <v>236522.4478970444</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778138</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778138</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>187.7088048787645</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>203.1485553268403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>84.63380825304846</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>52.01701577190809</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>304.6701708510469</v>
+        <v>328.8330305885843</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27673,7 +27675,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27834,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>144.1344859240863</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>86.14502017843051</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>346.8889279736915</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>141.650018295953</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>316.3899266744752</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>661.3192390158827</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>277.533792496097</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>178.4356412673393</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>684.3086716593995</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>661.3192390158824</v>
+        <v>321.6407242930885</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.33750994280372</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35267,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>684.3086716593995</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174595</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>178.4356412673392</v>
+        <v>979.9409695458962</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
-        <v>523.2115154696905</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35576,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>178.4356412673393</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593995</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>585.266624652565</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>715.8552653209144</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,7 +35813,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>289.0667057209139</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O18" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>661.3192390158824</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36750,13 +36752,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,13 +36767,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,10 +36843,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>379.5169886652534</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>427.9646913560541</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,16 +37554,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37616,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923631</v>
       </c>
       <c r="K41" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593994</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>46.1459453236921</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>684.3086716593994</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.319239015882</v>
       </c>
       <c r="L42" t="n">
-        <v>311.4228197911091</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,10 +37879,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,19 +38019,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>259.309510256229</v>
       </c>
       <c r="L44" t="n">
-        <v>684.3086716593995</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>684.3086716593994</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>656.6598364408383</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>661.3192390158827</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1337509.553670777</v>
+        <v>1336903.46604188</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074006</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797153</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -661,16 +661,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>202.0357464550221</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>235.8799504161199</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -819,25 +819,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>116.0434079398612</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>3.139541480022953</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>100.6039668047034</v>
+        <v>161.1585320705479</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>119.93485014758</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>81.01098805494614</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>252.8877930765919</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>170.4850594777228</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>3.139541480022953</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>175.0349193669826</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1660,13 +1660,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>316.1591450768022</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>85.55329631630701</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>221.9986082496083</v>
       </c>
     </row>
     <row r="23">
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>131.9969996527475</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>108.5103196251633</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.55329631630762</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3520,7 +3520,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011217</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>271.7368624962581</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>286.9629932008719</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4039,10 +4039,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>403.8720952516329</v>
+        <v>303.7471051422493</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1195.450391149961</v>
+        <v>1153.221971308028</v>
       </c>
       <c r="C2" t="n">
-        <v>1161.348322373788</v>
+        <v>715.079498491451</v>
       </c>
       <c r="D2" t="n">
-        <v>725.4385375482323</v>
+        <v>511.0029869207216</v>
       </c>
       <c r="E2" t="n">
-        <v>291.6637927065274</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4345,37 +4345,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2123.562040472834</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304467</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304467</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.178548755904</v>
+        <v>2002.909724873567</v>
       </c>
       <c r="X2" t="n">
-        <v>2030.036085335215</v>
+        <v>1987.807665493282</v>
       </c>
       <c r="Y2" t="n">
-        <v>1621.749961634868</v>
+        <v>1579.521541792935</v>
       </c>
     </row>
     <row r="3">
@@ -4403,7 +4403,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
         <v>79.46488968908616</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>56.57247054885377</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>56.57247054885377</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644544</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324156</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1052.900668210748</v>
+        <v>710.0264917116014</v>
       </c>
       <c r="C5" t="n">
-        <v>614.7581953941717</v>
+        <v>675.9244229354288</v>
       </c>
       <c r="D5" t="n">
-        <v>178.8484105686162</v>
+        <v>240.0146381098733</v>
       </c>
       <c r="E5" t="n">
-        <v>77.22824207901678</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
         <v>488.6559039815464</v>
@@ -4582,37 +4582,37 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719777</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365255</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355599</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y5" t="n">
-        <v>1479.200238695656</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392438</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4722,7 +4722,7 @@
         <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X7" t="n">
-        <v>1406.107276723079</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.9340324416416</v>
+        <v>428.7930370433824</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>394.6909682672097</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>362.8215874820583</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901678</v>
+        <v>333.0872466807575</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862857</v>
+        <v>309.2602211303693</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862857</v>
+        <v>309.2602211303693</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>141.0418768474983</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>141.0418768474983</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892767</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1462.721985931055</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472834</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
         <v>2670.060826431428</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488304</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2194.134594702725</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V8" t="n">
-        <v>1831.517644636552</v>
+        <v>2087.376649238293</v>
       </c>
       <c r="W8" t="n">
-        <v>1426.662190047585</v>
+        <v>1682.521194649326</v>
       </c>
       <c r="X8" t="n">
-        <v>1007.519726626896</v>
+        <v>1263.378731228637</v>
       </c>
       <c r="Y8" t="n">
-        <v>599.2336029265493</v>
+        <v>855.0926075282902</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
         <v>79.46488968908616</v>
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829153</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4953,13 +4953,13 @@
         <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
         <v>139.9809016933184</v>
@@ -5047,22 +5047,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2333.516638580387</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M11" t="n">
-        <v>2333.516638580387</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580387</v>
+        <v>2992.672448660726</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150693</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.00617998409</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942684</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
         <v>4688.504965942684</v>
@@ -5123,19 +5123,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>444.3920974455236</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
         <v>1099.098144071247</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2408.082100998617</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>1969.93962818204</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.029843356485</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.25509851478</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>672.3876689239878</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>270.9898375472517</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
         <v>94.18688869171368</v>
@@ -5278,25 +5278,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>3128.911340966338</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>4109.091007536645</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P14" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q14" t="n">
         <v>4688.504965942684</v>
@@ -5308,22 +5308,22 @@
         <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942684</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>4429.282663259701</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>4066.665713193527</v>
+        <v>3889.86276433799</v>
       </c>
       <c r="W14" t="n">
-        <v>3661.810258604561</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X14" t="n">
-        <v>3242.667795183871</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>2834.381671483525</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1048.313148129957</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1757.009860797663</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1757.009860797663</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
         <v>1757.009860797663</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>781.8461154418378</v>
+        <v>1030.683607422358</v>
       </c>
       <c r="C16" t="n">
-        <v>609.2844039250627</v>
+        <v>858.1218959055826</v>
       </c>
       <c r="D16" t="n">
-        <v>443.4064111265855</v>
+        <v>692.2439031071053</v>
       </c>
       <c r="E16" t="n">
-        <v>273.6484073773227</v>
+        <v>522.4858993578425</v>
       </c>
       <c r="F16" t="n">
-        <v>96.94135333907892</v>
+        <v>345.7788453195988</v>
       </c>
       <c r="G16" t="n">
-        <v>93.77009931885368</v>
+        <v>180.1875703454264</v>
       </c>
       <c r="H16" t="n">
         <v>93.77009931885368</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y16" t="n">
-        <v>973.664734160825</v>
+        <v>1222.502226141345</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>414.500552094942</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
         <v>190.9207894961043</v>
@@ -5706,19 +5706,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5764,19 +5764,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>3237.000859932811</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4932.38282354235</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4799.052520862807</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4512.097012733238</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>4240.070608319529</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>211.8672237305405</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6466,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6545,19 +6545,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>775.0235620688178</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L38" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M38" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N38" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055493</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238916</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.31074241336</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716556</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>368.6685679808633</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>94.18688869171368</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171368</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>254.9523156162931</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>1089.302607574471</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.78586499956</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316576</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661436</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3531.436949455168</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>3424.98048829181</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>3329.890199438363</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>3235.769784765317</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>3152.385946381479</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>3067.000856647663</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>3025.265204463875</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>3051.328877624333</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>3375.887202590545</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O42" t="n">
-        <v>4030.593249216269</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P42" t="n">
-        <v>4030.593249216269</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>4571.332187848344</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>4688.504965942684</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>4625.049528391067</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>4494.870884721669</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>4318.534337721637</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>4119.416819783636</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>3934.09406551683</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>3779.22662975571</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>3652.740850534931</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>781.8461154418378</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>609.2844039250627</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>443.4064111265855</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>273.6484073773227</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>96.94135333907892</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
         <v>93.77009931885368</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1446.476159513304</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1201.084404846717</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.664734160825</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7648,25 +7648,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>350.4865144725204</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1425.54648072538</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2582.59431593593</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>3708.325299372378</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>4688.504965942684</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>4688.504965942684</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
         <v>4688.504965942684</v>
@@ -7675,19 +7675,19 @@
         <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W44" t="n">
-        <v>3762.946612250403</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X44" t="n">
         <v>3354.995000885117</v>
@@ -7730,19 +7730,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O45" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P45" t="n">
         <v>1099.098144071247</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154828</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>664.63055186622</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279762</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>112.0092683615381</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
         <v>93.77009931885368</v>
@@ -7836,22 +7836,22 @@
         <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2674.873217292374</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2396.440216545479</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>2109.48470841591</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1837.458304002202</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8230,13 +8230,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>321.6407242930885</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174595</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>979.9409695458962</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>559.8357612908258</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8938,16 +8938,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
-        <v>585.266624652565</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9482,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10126,7 +10126,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10193,22 +10193,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -10904,22 +10904,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8103194923631</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>259.309510256229</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11378,22 +11378,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>111.2039336442333</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,13 +23548,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>42.83163548870948</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>52.94985625022221</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>3.146865729424462</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6516710866782</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>29.99283294136596</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>125.6469905667107</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>72.02778736463983</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>11.07894353484949</v>
+        <v>111.2039336442331</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>556081.1961658797</v>
+        <v>556081.1961658796</v>
       </c>
     </row>
     <row r="7">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>592982.2157307975</v>
+        <v>592982.2157307974</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>556081.1961658797</v>
+        <v>556081.1961658798</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>556081.1961658797</v>
+        <v>556081.1961658796</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>348495.7579287655</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287655</v>
+        <v>348495.7579287656</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
@@ -26328,13 +26328,13 @@
         <v>321146.4561425571</v>
       </c>
       <c r="G2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="H2" t="n">
         <v>342457.429689279</v>
       </c>
       <c r="I2" t="n">
-        <v>342457.4296892789</v>
+        <v>342457.429689279</v>
       </c>
       <c r="J2" t="n">
         <v>342457.429689279</v>
@@ -26349,7 +26349,7 @@
         <v>342457.429689279</v>
       </c>
       <c r="N2" t="n">
-        <v>342457.4296892791</v>
+        <v>342457.429689279</v>
       </c>
       <c r="O2" t="n">
         <v>321146.4561425571</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717479</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>122130.8532251352</v>
       </c>
       <c r="C4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="D4" t="n">
         <v>122130.8532251352</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>71265.2754823288</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-71547.31844217231</v>
+        <v>-71547.3184421723</v>
       </c>
       <c r="C6" t="n">
         <v>152152.3801418726</v>
       </c>
       <c r="D6" t="n">
-        <v>152152.3801418724</v>
+        <v>152152.3801418725</v>
       </c>
       <c r="E6" t="n">
-        <v>85856.6943252965</v>
+        <v>85751.50470304175</v>
       </c>
       <c r="F6" t="n">
-        <v>236522.4478970444</v>
+        <v>236417.2582747898</v>
       </c>
       <c r="G6" t="n">
-        <v>221404.1763403861</v>
+        <v>221380.9520010034</v>
       </c>
       <c r="H6" t="n">
-        <v>250493.9855129938</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="I6" t="n">
-        <v>250493.9855129938</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="J6" t="n">
-        <v>75842.63679528769</v>
+        <v>75819.41245590508</v>
       </c>
       <c r="K6" t="n">
-        <v>250493.9855129938</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="L6" t="n">
-        <v>250493.9855129938</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="M6" t="n">
-        <v>124742.8971773031</v>
+        <v>124719.6728379204</v>
       </c>
       <c r="N6" t="n">
-        <v>250493.9855129939</v>
+        <v>250470.7611736112</v>
       </c>
       <c r="O6" t="n">
-        <v>236522.4478970444</v>
+        <v>236417.2582747898</v>
       </c>
       <c r="P6" t="n">
-        <v>236522.4478970444</v>
+        <v>236417.2582747898</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1172.126241485671</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778138</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778138</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778138</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>229.5149405222778</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>187.7088048787645</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>54.79268646174614</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>84.63380825304846</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>328.8330305885843</v>
+        <v>268.2784653227399</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>44.28436272291249</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27870,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>33.35105993462398</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>86.14502017843051</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P2" t="n">
-        <v>316.3899266744752</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
@@ -34859,7 +34859,7 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.533792496097</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34871,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34950,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>145.5272350047208</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>30.03100411261585</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>321.6407242930885</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P8" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174595</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>979.9409695458962</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>559.8357612908258</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,16 +35658,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P14" t="n">
-        <v>585.266624652565</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>715.8552653209144</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>289.0667057209139</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36202,7 +36202,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36834,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,16 +36843,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-6.786426882829224e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37241,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>679.5583048465032</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
       <c r="Q39" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>162.8103194923631</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.319239015882</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,7 +37876,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>259.309510256229</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
